--- a/examples/bad.data.example.xlsx
+++ b/examples/bad.data.example.xlsx
@@ -4,10 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="12" activeTab="14"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Содержание" sheetId="6" r:id="rId1"/>
+    <sheet name="Объединенные ячейки" sheetId="1" r:id="rId2"/>
+    <sheet name="Несколько значений в ячейке" sheetId="2" r:id="rId3"/>
+    <sheet name="Разные единицы измерения" sheetId="3" r:id="rId4"/>
+    <sheet name="Посторонние данные" sheetId="4" r:id="rId5"/>
+    <sheet name="Цвет как идентификатор" sheetId="5" r:id="rId6"/>
+    <sheet name="Произвольные комментарии" sheetId="8" r:id="rId7"/>
+    <sheet name="Пропущенные значения" sheetId="7" r:id="rId8"/>
+    <sheet name="Опечатки и ошибки" sheetId="9" r:id="rId9"/>
+    <sheet name="Разнородные данные" sheetId="10" r:id="rId10"/>
+    <sheet name="Дополнительные пробелы" sheetId="11" r:id="rId11"/>
+    <sheet name="Десятичный разделитель" sheetId="12" r:id="rId12"/>
+    <sheet name="Данные в заголовках" sheetId="13" r:id="rId13"/>
+    <sheet name="Именование заголовков" sheetId="14" r:id="rId14"/>
+    <sheet name="Некорректные пропущенные данные" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +32,305 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="97">
+  <si>
+    <t>День 1</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Глюкоза</t>
+  </si>
+  <si>
+    <t>День 2</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>glucose</t>
+  </si>
+  <si>
+    <t>5.32/3.12</t>
+  </si>
+  <si>
+    <t>5.21/4.23</t>
+  </si>
+  <si>
+    <t>5.12/3.43</t>
+  </si>
+  <si>
+    <t>6.12/4.23</t>
+  </si>
+  <si>
+    <t>4.32/3.34</t>
+  </si>
+  <si>
+    <t>glucose.day1</t>
+  </si>
+  <si>
+    <t>glucose.day2</t>
+  </si>
+  <si>
+    <t>Время</t>
+  </si>
+  <si>
+    <t>45 сек</t>
+  </si>
+  <si>
+    <t>1 мин 2 сек</t>
+  </si>
+  <si>
+    <t>60 сек</t>
+  </si>
+  <si>
+    <t>65 сек</t>
+  </si>
+  <si>
+    <t>1 мин</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Среднее:</t>
+  </si>
+  <si>
+    <t>Объединенные ячейки</t>
+  </si>
+  <si>
+    <t>Номер листа</t>
+  </si>
+  <si>
+    <t>Заголовок</t>
+  </si>
+  <si>
+    <t>нет данных</t>
+  </si>
+  <si>
+    <t>животное из вивария 2</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>&lt;NA&gt;</t>
+  </si>
+  <si>
+    <t>Пол</t>
+  </si>
+  <si>
+    <t>муж</t>
+  </si>
+  <si>
+    <t>жен</t>
+  </si>
+  <si>
+    <t>жне</t>
+  </si>
+  <si>
+    <t>мжу</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>Диагноз</t>
+  </si>
+  <si>
+    <t>м</t>
+  </si>
+  <si>
+    <t>женщина</t>
+  </si>
+  <si>
+    <t>Диабет</t>
+  </si>
+  <si>
+    <t>диабет</t>
+  </si>
+  <si>
+    <t>Сах. Диабет</t>
+  </si>
+  <si>
+    <t>Сах. диабет</t>
+  </si>
+  <si>
+    <t>СД</t>
+  </si>
+  <si>
+    <t>diagnosis</t>
+  </si>
+  <si>
+    <t>diabetes</t>
+  </si>
+  <si>
+    <t>ж</t>
+  </si>
+  <si>
+    <t xml:space="preserve">диабет  </t>
+  </si>
+  <si>
+    <t>сахарный диабет</t>
+  </si>
+  <si>
+    <t>сахарный  диабет</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> диабет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СД </t>
+  </si>
+  <si>
+    <t>День</t>
+  </si>
+  <si>
+    <t>5,32</t>
+  </si>
+  <si>
+    <t>5,21</t>
+  </si>
+  <si>
+    <t>5,12</t>
+  </si>
+  <si>
+    <t>6,12</t>
+  </si>
+  <si>
+    <t>4,32</t>
+  </si>
+  <si>
+    <t>Тяжелая стадия</t>
+  </si>
+  <si>
+    <t>Средняя стадия</t>
+  </si>
+  <si>
+    <t>Легкая стадия</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>тяжелая</t>
+  </si>
+  <si>
+    <t>средняя</t>
+  </si>
+  <si>
+    <t>легкая</t>
+  </si>
+  <si>
+    <t>Глюкоза в крови</t>
+  </si>
+  <si>
+    <t>Поражение кожи, %</t>
+  </si>
+  <si>
+    <t>Поражение кожи, баллы</t>
+  </si>
+  <si>
+    <t>blood.glucose</t>
+  </si>
+  <si>
+    <t>skin.lesions.procent</t>
+  </si>
+  <si>
+    <t>skin.lesions.points</t>
+  </si>
+  <si>
+    <t>Несколько значений в ячейке</t>
+  </si>
+  <si>
+    <t>Разные единицы измерения</t>
+  </si>
+  <si>
+    <t>Посторонние данные</t>
+  </si>
+  <si>
+    <t>Цвет как идентификатор</t>
+  </si>
+  <si>
+    <t>Произвольные комментарии</t>
+  </si>
+  <si>
+    <t>Пропущенные значения</t>
+  </si>
+  <si>
+    <t>Некорректные пропущенные данные</t>
+  </si>
+  <si>
+    <t>Именование заголовков</t>
+  </si>
+  <si>
+    <t>Данные в заголовках</t>
+  </si>
+  <si>
+    <t>Десятичный разделитель</t>
+  </si>
+  <si>
+    <t>Дополнительные пробелы</t>
+  </si>
+  <si>
+    <t>Разнородные данные</t>
+  </si>
+  <si>
+    <t>Опечатки и ошибки</t>
+  </si>
+  <si>
+    <t>Визит</t>
+  </si>
+  <si>
+    <t>День 14</t>
+  </si>
+  <si>
+    <t>незапланированный</t>
+  </si>
+  <si>
+    <t>День 21</t>
+  </si>
+  <si>
+    <t>visit</t>
+  </si>
+  <si>
+    <t>Жалобы</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>нет</t>
+  </si>
+  <si>
+    <t>незначительные</t>
+  </si>
+  <si>
+    <t>рвота</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -29,16 +339,52 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -46,14 +392,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -67,6 +449,1608 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Стрелка вправо 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="1127760"/>
+          <a:ext cx="1889760" cy="619760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 109016"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Двойная стрелка влево/вправо 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5577840" y="1028700"/>
+          <a:ext cx="1485900" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>124460</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Стрелка вправо 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2895600" y="236220"/>
+          <a:ext cx="1889760" cy="619760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 109016"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Стрелка вправо 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1394460" y="800100"/>
+          <a:ext cx="1889760" cy="619760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 109016"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Двойная стрелка влево/вправо 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5631180" y="701040"/>
+          <a:ext cx="1485900" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>124460</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Стрелка вправо 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4549140" y="236220"/>
+          <a:ext cx="2194560" cy="619760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 109016"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>124460</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Стрелка вправо 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4549140" y="236220"/>
+          <a:ext cx="2194560" cy="619760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 109016"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>861060</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Прямоугольная выноска 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3139440" y="2918460"/>
+          <a:ext cx="4358640" cy="1043940"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -52050"/>
+            <a:gd name="adj2" fmla="val -145528"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Обработка</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> пропущенных наблюдений зависит в основном от желания исследователя, но в некоторых случаях удобным может введение дополнительного набора данных</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Стрелка вправо 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3101340" y="609600"/>
+          <a:ext cx="2194560" cy="619760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 109016"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Плюс 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7703820" y="335280"/>
+          <a:ext cx="1272540" cy="1188720"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathPlus">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Стрелка вправо 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1417320" y="243840"/>
+          <a:ext cx="1889760" cy="619760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 109016"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Двойная стрелка влево/вправо 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5905500" y="220980"/>
+          <a:ext cx="1485900" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Стрелка вправо 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1424940" y="434340"/>
+          <a:ext cx="1889760" cy="619760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 109016"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Прямоугольная выноска 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="1097280"/>
+          <a:ext cx="1244600" cy="1043940"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -184915"/>
+            <a:gd name="adj2" fmla="val -26551"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Хранение и анализ данных должны быть разделены!</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Прямоугольная выноска 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="1097280"/>
+          <a:ext cx="1244600" cy="1043940"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -190425"/>
+            <a:gd name="adj2" fmla="val -142609"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Хранение и анализ данных должны быть разделены!</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Стрелка вправо 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1394460" y="800100"/>
+          <a:ext cx="1889760" cy="619760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 109016"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Двойная стрелка влево/вправо 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5631180" y="701040"/>
+          <a:ext cx="1485900" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>116840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Стрелка вправо 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3124200" y="411480"/>
+          <a:ext cx="1889760" cy="619760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 109016"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Стрелка вправо 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1722120" y="243840"/>
+          <a:ext cx="1889760" cy="619760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 109016"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Двойная стрелка влево/вправо 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5471160" y="152400"/>
+          <a:ext cx="1485900" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Стрелка вправо 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="251460"/>
+          <a:ext cx="1889760" cy="619760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 109016"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>124460</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Стрелка вправо 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2727960" y="236220"/>
+          <a:ext cx="1889760" cy="619760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 109016"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -332,13 +2316,2716 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" location="'Объединенные ячейки'!A1" display="Объединенные ячейки"/>
+    <hyperlink ref="B3" location="'Несколько значений в ячейке'!A1" display="'Несколько значений в ячейке'!A1"/>
+    <hyperlink ref="B4" location="'Разные единицы измерения'!A1" display="'Разные единицы измерения'!A1"/>
+    <hyperlink ref="B5" location="'Посторонние данные'!A1" display="Посторонние данные"/>
+    <hyperlink ref="B6" location="'Цвет как идентификатор'!A1" display="Цвет как идентификатор"/>
+    <hyperlink ref="B7" location="'Произвольные комментарии'!A1" display="Произвольные комментарии"/>
+    <hyperlink ref="B8" location="'Пропущенные значения'!A1" display="'Пропущенные значения'!A1"/>
+    <hyperlink ref="B9" location="'Опечатки и ошибки'!A1" display="'Опечатки и ошибки'!A1"/>
+    <hyperlink ref="B10" location="'Разнородные данные'!A1" display="'Разнородные данные'!A1"/>
+    <hyperlink ref="B11" location="'Дополнительные пробелы'!A1" display="'Дополнительные пробелы'!A1"/>
+    <hyperlink ref="B12" location="'Десятичный разделитель'!A1" display="'Десятичный разделитель'!A1"/>
+    <hyperlink ref="B13" location="'Данные в заголовках'!A1" display="'Данные в заголовках'!A1"/>
+    <hyperlink ref="B14" location="'Именование заголовков'!A1" display="'Именование заголовков'!A1"/>
+    <hyperlink ref="B15" location="'Некорректные пропущенные данные'!A1" display="'Некорректные пропущенные данные'!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="5">
+        <v>3</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="5">
+        <v>4</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="5">
+        <v>5</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="5">
+        <v>3</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="5">
+        <v>4</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="5">
+        <v>5</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="15" max="18" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="5">
+        <v>3</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5">
+        <v>5.12</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
+        <v>6.12</v>
+      </c>
+      <c r="N5" s="5">
+        <v>1</v>
+      </c>
+      <c r="O5" s="5">
+        <v>5.32</v>
+      </c>
+      <c r="P5" s="5">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="5">
+        <v>5</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
+        <v>4.32</v>
+      </c>
+      <c r="N6" s="5">
+        <v>2</v>
+      </c>
+      <c r="O6" s="5">
+        <v>5.21</v>
+      </c>
+      <c r="P6" s="5">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9">
+        <v>3.12</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2</v>
+      </c>
+      <c r="J7" s="5">
+        <v>3.12</v>
+      </c>
+      <c r="N7" s="5">
+        <v>3</v>
+      </c>
+      <c r="O7" s="5">
+        <v>5.12</v>
+      </c>
+      <c r="P7" s="5">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2</v>
+      </c>
+      <c r="I8" s="5">
+        <v>2</v>
+      </c>
+      <c r="J8" s="5">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="N8" s="5">
+        <v>4</v>
+      </c>
+      <c r="O8" s="5">
+        <v>6.12</v>
+      </c>
+      <c r="P8" s="5">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9">
+        <v>3.43</v>
+      </c>
+      <c r="H9" s="5">
+        <v>3</v>
+      </c>
+      <c r="I9" s="5">
+        <v>2</v>
+      </c>
+      <c r="J9" s="5">
+        <v>3.43</v>
+      </c>
+      <c r="N9" s="5">
+        <v>5</v>
+      </c>
+      <c r="O9" s="5">
+        <v>4.32</v>
+      </c>
+      <c r="P9" s="5">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2</v>
+      </c>
+      <c r="C10" s="9">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="H10" s="5">
+        <v>4</v>
+      </c>
+      <c r="I10" s="5">
+        <v>2</v>
+      </c>
+      <c r="J10" s="5">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9">
+        <v>3.34</v>
+      </c>
+      <c r="H11" s="5">
+        <v>5</v>
+      </c>
+      <c r="I11" s="5">
+        <v>2</v>
+      </c>
+      <c r="J11" s="5">
+        <v>3.34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="J2" s="5">
+        <v>1</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="J3" s="5">
+        <v>2</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="J4" s="5">
+        <v>3</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="5">
+        <v>4</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="5">
+        <v>5</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="5">
+        <v>5.32</v>
+      </c>
+      <c r="D2" s="5">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="5">
+        <v>12</v>
+      </c>
+      <c r="N2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="5">
+        <v>5.21</v>
+      </c>
+      <c r="D3" s="5">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2</v>
+      </c>
+      <c r="J3" s="5">
+        <v>2</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="5">
+        <v>20</v>
+      </c>
+      <c r="N3" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="5">
+        <v>5.12</v>
+      </c>
+      <c r="D4" s="5">
+        <v>32</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3</v>
+      </c>
+      <c r="J4" s="5">
+        <v>3</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="5">
+        <v>32</v>
+      </c>
+      <c r="N4" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6.12</v>
+      </c>
+      <c r="D5" s="5">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
+        <v>4</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="5">
+        <v>10</v>
+      </c>
+      <c r="N5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4.32</v>
+      </c>
+      <c r="D6" s="5">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2</v>
+      </c>
+      <c r="J6" s="5">
+        <v>5</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" s="5">
+        <v>17</v>
+      </c>
+      <c r="N6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="5">
+        <v>3</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="M6" s="5">
+        <v>2</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="5">
+        <v>3</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>3</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="5">
+        <v>2</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="5">
+        <v>3</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="14" max="16" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>5.32</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>5.21</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>5.12</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>6.12</v>
+      </c>
+      <c r="G6" s="5">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5">
+        <v>5.12</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>4.32</v>
+      </c>
+      <c r="G7" s="5">
+        <v>4</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>6.12</v>
+      </c>
+      <c r="M7" s="5">
+        <v>1</v>
+      </c>
+      <c r="N7" s="5">
+        <v>5.32</v>
+      </c>
+      <c r="O7" s="5">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="G8" s="5">
+        <v>5</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
+        <v>4.32</v>
+      </c>
+      <c r="M8" s="5">
+        <v>2</v>
+      </c>
+      <c r="N8" s="5">
+        <v>5.21</v>
+      </c>
+      <c r="O8" s="5">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>2</v>
+      </c>
+      <c r="I9" s="5">
+        <v>3.12</v>
+      </c>
+      <c r="M9" s="5">
+        <v>3</v>
+      </c>
+      <c r="N9" s="5">
+        <v>5.12</v>
+      </c>
+      <c r="O9" s="5">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5">
+        <v>3.12</v>
+      </c>
+      <c r="G10" s="5">
+        <v>2</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2</v>
+      </c>
+      <c r="I10" s="5">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="M10" s="5">
+        <v>4</v>
+      </c>
+      <c r="N10" s="5">
+        <v>6.12</v>
+      </c>
+      <c r="O10" s="5">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="G11" s="5">
+        <v>3</v>
+      </c>
+      <c r="H11" s="5">
+        <v>2</v>
+      </c>
+      <c r="I11" s="5">
+        <v>3.43</v>
+      </c>
+      <c r="M11" s="5">
+        <v>5</v>
+      </c>
+      <c r="N11" s="5">
+        <v>4.32</v>
+      </c>
+      <c r="O11" s="5">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>3</v>
+      </c>
+      <c r="B12" s="5">
+        <v>3.43</v>
+      </c>
+      <c r="G12" s="5">
+        <v>4</v>
+      </c>
+      <c r="H12" s="5">
+        <v>2</v>
+      </c>
+      <c r="I12" s="5">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="G13" s="5">
+        <v>5</v>
+      </c>
+      <c r="H13" s="5">
+        <v>2</v>
+      </c>
+      <c r="I13" s="5">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>5</v>
+      </c>
+      <c r="B14" s="5">
+        <v>3.34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="6.44140625" customWidth="1"/>
+    <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
+        <v>5.32</v>
+      </c>
+      <c r="I2" s="5">
+        <v>3.12</v>
+      </c>
+      <c r="M2" s="5">
+        <v>1</v>
+      </c>
+      <c r="N2" s="5">
+        <v>1</v>
+      </c>
+      <c r="O2" s="5">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5">
+        <v>5.21</v>
+      </c>
+      <c r="I3" s="5">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="M3" s="5">
+        <v>2</v>
+      </c>
+      <c r="N3" s="5">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="5">
+        <v>3</v>
+      </c>
+      <c r="H4" s="5">
+        <v>5.12</v>
+      </c>
+      <c r="I4" s="5">
+        <v>3.43</v>
+      </c>
+      <c r="M4" s="5">
+        <v>3</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5">
+        <v>6.12</v>
+      </c>
+      <c r="I5" s="5">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="M5" s="5">
+        <v>4</v>
+      </c>
+      <c r="N5" s="5">
+        <v>1</v>
+      </c>
+      <c r="O5" s="5">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="5">
+        <v>5</v>
+      </c>
+      <c r="H6" s="5">
+        <v>4.32</v>
+      </c>
+      <c r="I6" s="5">
+        <v>3.34</v>
+      </c>
+      <c r="M6" s="5">
+        <v>5</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1</v>
+      </c>
+      <c r="O6" s="5">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M7" s="5">
+        <v>1</v>
+      </c>
+      <c r="N7" s="5">
+        <v>2</v>
+      </c>
+      <c r="O7" s="5">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M8" s="5">
+        <v>2</v>
+      </c>
+      <c r="N8" s="5">
+        <v>2</v>
+      </c>
+      <c r="O8" s="5">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M9" s="5">
+        <v>3</v>
+      </c>
+      <c r="N9" s="5">
+        <v>2</v>
+      </c>
+      <c r="O9" s="5">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M10" s="5">
+        <v>4</v>
+      </c>
+      <c r="N10" s="5">
+        <v>2</v>
+      </c>
+      <c r="O10" s="5">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M11" s="5">
+        <v>5</v>
+      </c>
+      <c r="N11" s="5">
+        <v>2</v>
+      </c>
+      <c r="O11" s="5">
+        <v>3.34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="5">
+        <v>3</v>
+      </c>
+      <c r="H4" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="5">
+        <v>5</v>
+      </c>
+      <c r="H6" s="5">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1">
+        <f>AVERAGE(B3:B7)</f>
+        <v>5.2180000000000009</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <f>AVERAGE(B10:B14)</f>
+        <v>3.6700000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>3</v>
+      </c>
+      <c r="B12" s="5">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>5</v>
+      </c>
+      <c r="B14" s="5">
+        <v>3.34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="14" max="17" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>5.32</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>5.21</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>5.12</v>
+      </c>
+      <c r="G4" s="5">
+        <v>3</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5">
+        <v>5.12</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>6.12</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <v>6.12</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1</v>
+      </c>
+      <c r="N5" s="5">
+        <v>5.32</v>
+      </c>
+      <c r="O5" s="5">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>4.32</v>
+      </c>
+      <c r="G6" s="5">
+        <v>5</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5">
+        <v>4.32</v>
+      </c>
+      <c r="M6" s="5">
+        <v>2</v>
+      </c>
+      <c r="N6" s="5">
+        <v>5.21</v>
+      </c>
+      <c r="O6" s="5">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8">
+        <v>3.12</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>2</v>
+      </c>
+      <c r="I7" s="5">
+        <v>3.12</v>
+      </c>
+      <c r="M7" s="5">
+        <v>3</v>
+      </c>
+      <c r="N7" s="5">
+        <v>5.12</v>
+      </c>
+      <c r="O7" s="5">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="8">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2</v>
+      </c>
+      <c r="I8" s="5">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="M8" s="5">
+        <v>4</v>
+      </c>
+      <c r="N8" s="5">
+        <v>6.12</v>
+      </c>
+      <c r="O8" s="5">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>3</v>
+      </c>
+      <c r="B9" s="8">
+        <v>3.43</v>
+      </c>
+      <c r="G9" s="5">
+        <v>3</v>
+      </c>
+      <c r="H9" s="5">
+        <v>2</v>
+      </c>
+      <c r="I9" s="5">
+        <v>3.43</v>
+      </c>
+      <c r="M9" s="5">
+        <v>5</v>
+      </c>
+      <c r="N9" s="5">
+        <v>4.32</v>
+      </c>
+      <c r="O9" s="5">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>4</v>
+      </c>
+      <c r="B10" s="8">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="G10" s="5">
+        <v>4</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2</v>
+      </c>
+      <c r="I10" s="5">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>5</v>
+      </c>
+      <c r="B11" s="8">
+        <v>3.34</v>
+      </c>
+      <c r="G11" s="5">
+        <v>5</v>
+      </c>
+      <c r="H11" s="5">
+        <v>2</v>
+      </c>
+      <c r="I11" s="5">
+        <v>3.34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5">
+        <v>45</v>
+      </c>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2</v>
+      </c>
+      <c r="J3" s="5">
+        <v>62</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="5">
+        <v>3</v>
+      </c>
+      <c r="J4" s="5">
+        <v>60</v>
+      </c>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="5">
+        <v>4</v>
+      </c>
+      <c r="J5" s="5">
+        <v>65</v>
+      </c>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="5">
+        <v>5</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
+        <v>45</v>
+      </c>
+      <c r="L2" s="5">
+        <v>1</v>
+      </c>
+      <c r="M2" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="L3" s="5">
+        <v>2</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="5">
+        <v>3</v>
+      </c>
+      <c r="H4" s="5">
+        <v>60</v>
+      </c>
+      <c r="L4" s="5">
+        <v>3</v>
+      </c>
+      <c r="M4" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="L5" s="5">
+        <v>4</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="G6" s="5">
+        <v>5</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="L6" s="5">
+        <v>5</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="5">
+        <v>3</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="5">
+        <v>5</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>